--- a/src/analysis_examples/circadb/results_jtk/cosinor_10358595_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10358595_hmcn1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21165189147509844, 0.2818482908369522]</t>
+          <t>[0.21176440088028542, 0.2817357814317652]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.762368029289973e-12</v>
+        <v>1.656896841950584e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.762368029289973e-12</v>
+        <v>1.656896841950584e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.6478423928739252, -1.3459476033397708]</t>
+          <t>[-1.6352634433100022, -1.3585265529036938]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S2" t="n">
         <v>0.5662896379561908</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5438328746622357, 0.5887464012501459]</t>
+          <t>[0.5438582910568894, 0.5887209848554922]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.62004004004017</v>
       </c>
       <c r="X2" t="n">
-        <v>5.05331331331343</v>
+        <v>5.100540540540657</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.18676676676691</v>
+        <v>6.139539539539682</v>
       </c>
     </row>
   </sheetData>
